--- a/variables_key.xlsx
+++ b/variables_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dartr\OneDrive\Documents\github\ScoreTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325784A8-98AA-478D-B0EA-ACF5C516A173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9718F4A-7C84-42B2-A8F3-07884B82F205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Team</t>
   </si>
@@ -83,6 +82,9 @@
   </si>
   <si>
     <t>Use discord name as main foreign key</t>
+  </si>
+  <si>
+    <t>In the Games column, put the winning team first, separate by hyphen, then losing team. EX. FCC-GAC (FCC win, GAC loss)</t>
   </si>
 </sst>
 </file>
@@ -101,17 +103,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,7 +408,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -595,6 +600,9 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="9"/>
       <c r="D12" s="3"/>
